--- a/medicine/Pharmacie/Médétomidine/Médétomidine.xlsx
+++ b/medicine/Pharmacie/Médétomidine/Médétomidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
+          <t>Médétomidine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médétomidine est un α2-agoniste utilisé en anesthésiologie vétérinaire. Il est l'un des sédatifs les plus puissants de sa classe.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
+          <t>Médétomidine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La médétomidine agit sur les récepteurs adrénergiques α2 localisés dans le système nerveux central et le cœur. Elle diminue la libération de noradrénaline et provoque une inhibition du système nerveux sympathique. Ainsi, la médétomidine est responsable d'une diminution de la vigilance, de la nociception et du tonus musculaire.
 À l'étage cardiaque, elle provoque une bradycardie : la fréquence cardiaque diminue de 40 à 50 % par rapport aux valeurs habituelles.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
+          <t>Médétomidine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Utilisation / Posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La médétomidine possède une activité sympatholytique. Elle est utilisée en médecine vétérinaire comme sédatif, analgésique et myorelaxant.
 En anesthésiologie, elle est indiquée pour la prémédication et la sédanalgésie. Elle potentialise la narcose et la myorelaxation des anesthésiques halogénés volatils (halothane, isoflurane...).
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
+          <t>Médétomidine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La médétomidine provoque une dépression cardio-respiratoire importante à l'origine d'une bradycardie sinusale et d'une bradypnée dose-dépendantes. Elle induit également une vasoconstriction et une hypertension.
 Elle diminue les contractions des muscles lisses : elle freine ainsi la motricité gastro-intestinale et provoque une mydriase.
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
+          <t>Médétomidine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,43 +632,84 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Contre-indications relatives
-Hyperkaliémie
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hyperkaliémie
 Insuffisance rénale
-Diabète non stabilisé
-Contre-indications absolues
-Insuffisance cardiaque
+Diabète non stabilisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Médétomidine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9d%C3%A9tomidine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Insuffisance cardiaque
 États de choc
 Insuffisance hépato-cellulaire grave
 Obstacles mécaniques au péristaltisme</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Médétomidine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9d%C3%A9tomidine</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est déconseillé d'administrer des anticholinergiques (atropine, glycopyrrolate) pour lutter contre la bradycardie car il existe d'importants risques d'hypertension sévère et d'arythmie.
 Certains opioïdes (fentanyl, butorphanol et péthidine) potentialisent les effets secondaires de la médétomidine.
@@ -659,31 +718,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>M%C3%A9d%C3%A9tomidine</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Médétomidine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Pharmacie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/M%C3%A9d%C3%A9tomidine</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Antagonisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La médétomidine est antagonisée par des α2-antagonistes, préférentiellement l'atipamézole. La yohimbine est à proscrire car elle peut potentialiser les effets secondaires de la médétomidine.
 </t>
